--- a/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_马丁组.xlsx
+++ b/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_马丁组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 3.3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>陈冠龙,张蕴熠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>【房东PC/APP/BS】房源类型字段调整</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -253,6 +249,49 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东APP】APP禁用房源列表（分散式/集中式）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东APP】APP首页房源默认跳转页修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】BS后台小区编辑界面百度地图插件优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】BS后台大楼编辑界面百度地图插件优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】新建大楼/编辑大楼界面增加添加房间和编辑房型字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东APP】APP房态图的筛选条件与新版房态图保持一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】没有房间的大楼不在前端显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文瑞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李萌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>BS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1001,14 +1040,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="41.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="20" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="19" customWidth="1"/>
@@ -1094,13 +1133,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>29</v>
@@ -1122,21 +1161,21 @@
         <v>48</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N2" s="13">
         <v>42535</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
@@ -1152,7 +1191,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>28</v>
@@ -1174,21 +1213,21 @@
         <v>48</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N3" s="13">
         <v>42535</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
@@ -1198,13 +1237,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>28</v>
@@ -1226,21 +1265,21 @@
         <v>48</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N4" s="13">
         <v>42535</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
@@ -1256,7 +1295,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>28</v>
@@ -1278,21 +1317,21 @@
         <v>48</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" s="13">
         <v>42535</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
@@ -1308,7 +1347,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>28</v>
@@ -1330,21 +1369,21 @@
         <v>48</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N6" s="13">
         <v>42535</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
@@ -1354,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>27</v>
@@ -1382,21 +1421,21 @@
         <v>48</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" s="13">
         <v>42535</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
@@ -1412,7 +1451,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>28</v>
@@ -1434,21 +1473,21 @@
         <v>48</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N8" s="13">
         <v>42535</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
@@ -1486,38 +1525,60 @@
         <v>48</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N9" s="13">
         <v>42536</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="13">
+        <v>42552</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="13">
+        <v>42552</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="J10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="M10" s="14"/>
       <c r="N10" s="13"/>
       <c r="O10" s="14"/>
@@ -1528,18 +1589,40 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="13">
+        <v>42552</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="13">
+        <v>42552</v>
+      </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="J11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>
       <c r="O11" s="14"/>
@@ -1550,18 +1633,40 @@
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13">
+        <v>42552</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="13">
+        <v>42552</v>
+      </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="J12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="M12" s="14"/>
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
@@ -1572,18 +1677,40 @@
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="13">
+        <v>42552</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="13">
+        <v>42552</v>
+      </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="J13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="M13" s="14"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
@@ -1594,18 +1721,40 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="13">
+        <v>42552</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="13">
+        <v>42552</v>
+      </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="J14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="M14" s="14"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
@@ -1616,18 +1765,40 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="21">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="13">
+        <v>42552</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="13">
+        <v>42552</v>
+      </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="J15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="M15" s="14"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
@@ -1638,18 +1809,40 @@
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="13">
+        <v>42552</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="13">
+        <v>42552</v>
+      </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="J16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="M16" s="14"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>

--- a/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_马丁组.xlsx
+++ b/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_马丁组.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1579,12 +1579,20 @@
       <c r="L10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="M10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42562</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="R10" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
@@ -1623,12 +1631,20 @@
       <c r="L11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="M11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="13">
+        <v>42562</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="R11" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
@@ -1667,12 +1683,20 @@
       <c r="L12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="M12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="13">
+        <v>42562</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="R12" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
@@ -1711,12 +1735,20 @@
       <c r="L13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="M13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="13">
+        <v>42562</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="R13" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
@@ -1755,12 +1787,20 @@
       <c r="L14" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="M14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42562</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
@@ -1799,12 +1839,20 @@
       <c r="L15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+      <c r="M15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="13">
+        <v>42562</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
@@ -1843,12 +1891,20 @@
       <c r="L16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
+      <c r="M16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="13">
+        <v>42562</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>

--- a/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_马丁组.xlsx
+++ b/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_马丁组.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="74">
   <si>
     <t>No</t>
   </si>
@@ -292,6 +292,14 @@
   </si>
   <si>
     <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】芝麻信用判断职业房东是公司还是个人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚海强</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1041,7 +1049,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1567,7 +1575,7 @@
         <v>28</v>
       </c>
       <c r="H10" s="13">
-        <v>42552</v>
+        <v>42562</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="14" t="s">
@@ -1619,7 +1627,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="13">
-        <v>42552</v>
+        <v>42562</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
@@ -1671,7 +1679,7 @@
         <v>28</v>
       </c>
       <c r="H12" s="13">
-        <v>42552</v>
+        <v>42562</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="14" t="s">
@@ -1723,7 +1731,7 @@
         <v>28</v>
       </c>
       <c r="H13" s="13">
-        <v>42552</v>
+        <v>42562</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="14" t="s">
@@ -1775,7 +1783,7 @@
         <v>28</v>
       </c>
       <c r="H14" s="13">
-        <v>42552</v>
+        <v>42562</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
@@ -1827,7 +1835,7 @@
         <v>28</v>
       </c>
       <c r="H15" s="13">
-        <v>42552</v>
+        <v>42562</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="14" t="s">
@@ -1879,7 +1887,7 @@
         <v>28</v>
       </c>
       <c r="H16" s="13">
-        <v>42552</v>
+        <v>42562</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="14" t="s">
@@ -1910,23 +1918,51 @@
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="B17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="13">
+        <v>42553</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="13">
+        <v>42562</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="13">
+        <v>42562</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="S17" s="18"/>
       <c r="T17" s="10"/>
     </row>
